--- a/biology/Botanique/Apocyne/Apocyne.xlsx
+++ b/biology/Botanique/Apocyne/Apocyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apocynum
 Les Apocyns (genre Apocynum) sont des plantes dicotylédones de la famille des Apocynaceae, sous-famille des Apocynoideae, originaire d'Eurasie et d'Amérique du Nord, qui compte sept espèces acceptées.
-Ce sont des plantes herbacées vivaces, parfois des arbustes, produisant un latex blanc, aux feuilles opposées, rarement alternes. Les fleurs, petites, blanches ou roses, sont groupées en pseudo-thyrses terminaux[2].
+Ce sont des plantes herbacées vivaces, parfois des arbustes, produisant un latex blanc, aux feuilles opposées, rarement alternes. Les fleurs, petites, blanches ou roses, sont groupées en pseudo-thyrses terminaux.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Apocynum » est un terme latin, transcription du grec ancien ἀπόκυνον attesté chez Dioscoride, « qui éloigne, qui tue les chiens ». Ce terme est formé de deux racines grecques : ἀπό (apo), « loin », et κῦνος (kûnos, latin cynum), « chien », en référence au caractère toxique de ces plantes pour les chiens[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Apocynum » est un terme latin, transcription du grec ancien ἀπόκυνον attesté chez Dioscoride, « qui éloigne, qui tue les chiens ». Ce terme est formé de deux racines grecques : ἀπό (apo), « loin », et κῦνος (kûnos, latin cynum), « chien », en référence au caractère toxique de ces plantes pour les chiens,.
 </t>
         </is>
       </c>
@@ -546,24 +560,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon  World Checklist of Selected Plant Families[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon  World Checklist of Selected Plant Families :
 Apocynastrum Heist. ex Fabr.
 Poacynum Baill.
 Trachomitum Woodson,
 Cynopaema Lunell
-Trachomitum Woodson
-Liste d'espèces
-Selon The Plant List            (17 août 2019)[6] :
+Trachomitum Woodson</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apocyne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apocyne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (17 août 2019) :
 Apocynum androsaemifolium L.
 Apocynum cannabinum L.
 Apocynum floribundum Greene
 Apocynum jonesii Woodson
 Apocynum medium Greene
 Apocynum pictum Schrenk
-Apocynum venetum L.
-Liste d'espèces, sous-espèces et variétés
-Selon World Checklist of Selected Plant Families (WCSP)  (17 août 2019)[7] :
+Apocynum venetum L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Apocyne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apocyne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces, sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (17 août 2019) :
 Apocynum androsaemifolium L. (1753)
 sous-espèce Apocynum androsaemifolium subsp. androsaemifolium
 variété Apocynum androsaemifolium var. griseum (Greene) Bég. &amp; Belosersky, Atti Reale Accad. Lincei, Mem. Cl. Sci. Fis., ser. 5a (1913)
